--- a/files/reference_xls/price_xls/slouver.xlsx
+++ b/files/reference_xls/price_xls/slouver.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snigdhagoel/Documents/Vibrant Technik/vibrant-technik/offer-generator/files/reference_xls/price_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snigdhagoel/Documents/Vibrant Technik/vibrant-technik/offer-generator-test/files/reference_xls/price_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52363D38-0441-874A-8279-48C8E98D5E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F02484-42BD-A544-A62F-B8181DDBABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Price" sheetId="1" r:id="rId1"/>
     <sheet name="Per m weight" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Product</t>
   </si>
@@ -100,12 +97,6 @@
   </si>
   <si>
     <t>Perimeter (mm)</t>
-  </si>
-  <si>
-    <t>LOUVERS</t>
-  </si>
-  <si>
-    <t>Grille 2050</t>
   </si>
   <si>
     <r>
@@ -134,9 +125,6 @@
     </r>
   </si>
   <si>
-    <t>Grille 2550</t>
-  </si>
-  <si>
     <r>
       <t>Wood Finish Rate (Rs./in</t>
     </r>
@@ -163,12 +151,6 @@
     </r>
   </si>
   <si>
-    <t>Grille Carrier</t>
-  </si>
-  <si>
-    <t>Grille Covering</t>
-  </si>
-  <si>
     <t>S Louvers</t>
   </si>
   <si>
@@ -179,135 +161,6 @@
   </si>
   <si>
     <t>S Louvers Carrier</t>
-  </si>
-  <si>
-    <t>Aerofoil AF 63/16</t>
-  </si>
-  <si>
-    <t>Aerofoil AF 100/20</t>
-  </si>
-  <si>
-    <t>Aerofoil AF 120/30</t>
-  </si>
-  <si>
-    <t>Aerofoil AF 150/40</t>
-  </si>
-  <si>
-    <t>Aerofoil AF 200/50</t>
-  </si>
-  <si>
-    <t>Aerofoil AF 200/60</t>
-  </si>
-  <si>
-    <t>Aerofoil AF 250/50</t>
-  </si>
-  <si>
-    <t>Aerofoil AF 400/60</t>
-  </si>
-  <si>
-    <t>Aerofoil Center Piece AF 400/60-C</t>
-  </si>
-  <si>
-    <t>C Profile For Aerofoil</t>
-  </si>
-  <si>
-    <t>Aerofoil Wall Bracket WB (for Aerofoil AF100/20, AF150/40, AF200/50, AF 250/50)</t>
-  </si>
-  <si>
-    <t>Aerofoil Carrier C1 (AF100/20)</t>
-  </si>
-  <si>
-    <t>Aerofoil Carrier C2 (AF150/40, AF200/50, AF 250/50)</t>
-  </si>
-  <si>
-    <t>Half Aerofoil HAF80</t>
-  </si>
-  <si>
-    <t>Half Aerofoil HAF120</t>
-  </si>
-  <si>
-    <t>Half Aerofoil Carrier HAF-C1 (option 1)</t>
-  </si>
-  <si>
-    <t>Half Aerofoil Carrier HAF-C2 (option 2)</t>
-  </si>
-  <si>
-    <t>C Louvers CL113</t>
-  </si>
-  <si>
-    <t>C Louvers Carrier CL113-C</t>
-  </si>
-  <si>
-    <t>C Louvers Carrier Covering CL113-CC</t>
-  </si>
-  <si>
-    <t>C Louvers CL230</t>
-  </si>
-  <si>
-    <t>C Louvers Carrier CL230-C</t>
-  </si>
-  <si>
-    <t>C Louvers Carrier Covering CL230-CC</t>
-  </si>
-  <si>
-    <t>Rectangular Profile RP 50/124</t>
-  </si>
-  <si>
-    <t>Rectangular Carrier</t>
-  </si>
-  <si>
-    <t>Cottal 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluted </t>
-  </si>
-  <si>
-    <t>50x50 Profile</t>
-  </si>
-  <si>
-    <t>50x50 Carrier</t>
-  </si>
-  <si>
-    <t>25x50 Profile</t>
-  </si>
-  <si>
-    <t>25x50 carrier</t>
-  </si>
-  <si>
-    <t>25x75 Profile</t>
-  </si>
-  <si>
-    <t>25x75 Carrier</t>
-  </si>
-  <si>
-    <t>25x100 Profile</t>
-  </si>
-  <si>
-    <t>25x100 Carrier</t>
-  </si>
-  <si>
-    <t>50x75 Profile</t>
-  </si>
-  <si>
-    <t>50x75 Carrier</t>
-  </si>
-  <si>
-    <t>50x100 Profile</t>
-  </si>
-  <si>
-    <t>50x100 Carrier</t>
-  </si>
-  <si>
-    <t>50x125 Profile</t>
-  </si>
-  <si>
-    <t>50x125 Carrier</t>
-  </si>
-  <si>
-    <t>30x60 Profile</t>
-  </si>
-  <si>
-    <t>30x60 Carrier</t>
   </si>
   <si>
     <t>Pitch</t>
@@ -378,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,44 +256,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -659,97 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1029,6 +755,15 @@
       <top style="thin">
         <color theme="1"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1039,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,13 +812,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,55 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,10 +831,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,10 +849,10 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,37 +867,70 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,7 +939,7 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,59 +948,26 @@
     <xf numFmtId="1" fontId="7" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1306,62 +985,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Linear Grilles"/>
-      <sheetName val="New S Louvers"/>
-      <sheetName val="S Louvers"/>
-      <sheetName val="Aerofoils"/>
-      <sheetName val="25x100"/>
-      <sheetName val="25x75"/>
-      <sheetName val="25x50"/>
-      <sheetName val="30x60"/>
-      <sheetName val="50 x 125"/>
-      <sheetName val="50x100"/>
-      <sheetName val="50x75"/>
-      <sheetName val="50x50"/>
-      <sheetName val="Rectangular 50124"/>
-      <sheetName val="C Louvers"/>
-      <sheetName val="Cottal 130"/>
-      <sheetName val="Per m weight"/>
-      <sheetName val="Turkey Fluted"/>
-      <sheetName val="Hindalco Fluted Panels"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15">
-        <row r="10">
-          <cell r="D10">
-            <v>136</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1683,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="233" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1700,28 +1323,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -1732,206 +1355,206 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="24">
         <f>C2/10.76391</f>
         <v>67.749040767910245</v>
       </c>
       <c r="C2" s="2">
-        <f>((((1000/133.7)*2)*50/1000)*'Per m weight'!C9)*A9</f>
+        <f>((((1000/133.7)*2)*50/1000)*'Per m weight'!B5)*A9</f>
         <v>729.24457741211677</v>
       </c>
-      <c r="D2" s="51">
-        <f>+A9*'Per m weight'!C9</f>
+      <c r="D2" s="25">
+        <f>+A9*'Per m weight'!B5</f>
         <v>975</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="30">
         <f>F2/10.76391</f>
         <v>78.78866010329665</v>
       </c>
       <c r="F2" s="3">
-        <f>C2+(('Per m weight'!D9/25.4)*39.37)*(((1000/133.7)*2)*50/1000)*'Per m weight'!H3</f>
+        <f>C2+(('Per m weight'!C5/25.4)*39.37)*(((1000/133.7)*2)*50/1000)*'Per m weight'!G3</f>
         <v>848.07404637247578</v>
       </c>
-      <c r="G2" s="57">
-        <f>+D2+((('Per m weight'!D9/25.4)*39.37008)*'Per m weight'!H3)</f>
+      <c r="G2" s="31">
+        <f>+D2+((('Per m weight'!C5/25.4)*39.37008)*'Per m weight'!G3)</f>
         <v>1133.8753228346457</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="27">
         <f>I2/10.76391</f>
         <v>94.244127172837608</v>
       </c>
       <c r="I2" s="4">
-        <f>C2+(('Per m weight'!D9/25.4)*39.37)*(((1000/133.7)*2)*50/1000)*'Per m weight'!H4</f>
+        <f>C2+(('Per m weight'!C5/25.4)*39.37)*(((1000/133.7)*2)*50/1000)*'Per m weight'!G4</f>
         <v>1014.4353029169783</v>
       </c>
       <c r="J2" s="9">
-        <f>+D2+((('Per m weight'!D9/25.4)*39.37008)*'Per m weight'!H4)</f>
+        <f>+D2+((('Per m weight'!C5/25.4)*39.37008)*'Per m weight'!G4)</f>
         <v>1356.3007748031496</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="24">
         <f>C3/10.76391</f>
         <v>691.96749713338045</v>
       </c>
       <c r="C3" s="2">
-        <f>((1000/B9)*'Per m weight'!C7)*A9</f>
+        <f>((1000/B9)*'Per m weight'!B3)*A9</f>
         <v>7448.2758620689647</v>
       </c>
-      <c r="D3" s="51">
-        <f>+A9*'Per m weight'!C7</f>
+      <c r="D3" s="25">
+        <f>+A9*'Per m weight'!B3</f>
         <v>324</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="30">
         <f>F3/10.76391</f>
         <v>791.27744856463039</v>
       </c>
       <c r="F3" s="3">
-        <f>C3+(((('Per m weight'!D7*0.03937)*39.37)*(1000/B9))*'Per m weight'!H3)</f>
+        <f>C3+(((('Per m weight'!C3*0.03937)*39.37)*(1000/B9))*'Per m weight'!G3)</f>
         <v>8517.2392413793095</v>
       </c>
-      <c r="G3" s="57">
-        <f>+D3+((('Per m weight'!D7/25.4)*39.37008)*'Per m weight'!H3)</f>
+      <c r="G3" s="31">
+        <f>+D3+((('Per m weight'!C3/25.4)*39.37008)*'Per m weight'!G3)</f>
         <v>370.50009448818901</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="27">
         <f t="shared" ref="H3:H4" si="0">I3/10.76391</f>
         <v>930.31138056838017</v>
       </c>
       <c r="I3" s="4">
-        <f>C3+(((('Per m weight'!D7*0.03937)*39.37)*(1000/B9))*'Per m weight'!H4)</f>
+        <f>C3+(((('Per m weight'!C3*0.03937)*39.37)*(1000/B9))*'Per m weight'!G4)</f>
         <v>10013.787972413793</v>
       </c>
       <c r="J3" s="9">
-        <f>+D3+((('Per m weight'!D7/25.4)*39.37008)*'Per m weight'!H4)</f>
+        <f>+D3+((('Per m weight'!C3/25.4)*39.37008)*'Per m weight'!G4)</f>
         <v>435.60022677165358</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="33">
         <f>C4/10.76391</f>
         <v>691.96749713338045</v>
       </c>
-      <c r="C4" s="60">
-        <f>((1000/B9)*'Per m weight'!C7)*A9</f>
+      <c r="C4" s="34">
+        <f>((1000/B9)*'Per m weight'!B3)*A9</f>
         <v>7448.2758620689647</v>
       </c>
-      <c r="D4" s="61">
-        <f>+A9*'Per m weight'!C7</f>
+      <c r="D4" s="35">
+        <f>+A9*'Per m weight'!B3</f>
         <v>324</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="36">
         <f>F4/10.76391</f>
         <v>824.3807657083803</v>
       </c>
-      <c r="F4" s="63">
-        <f>C4+(((('Per m weight'!D8*0.03937)*39.37)*(1000/B9))*'Per m weight'!H3)</f>
+      <c r="F4" s="37">
+        <f>C4+(((('Per m weight'!C4*0.03937)*39.37)*(1000/B9))*'Per m weight'!G3)</f>
         <v>8873.5603678160915</v>
       </c>
-      <c r="G4" s="64">
-        <f>+D4+((('Per m weight'!D8/25.4)*39.37008)*'Per m weight'!H3)</f>
+      <c r="G4" s="38">
+        <f>+D4+((('Per m weight'!C4/25.4)*39.37008)*'Per m weight'!G3)</f>
         <v>386.00012598425195</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="39">
         <f t="shared" si="0"/>
         <v>1009.7593417133801</v>
       </c>
-      <c r="I4" s="66">
-        <f>C4+(((('Per m weight'!D8*0.03937)*39.37)*(1000/B9))*'Per m weight'!H4)</f>
+      <c r="I4" s="40">
+        <f>C4+(((('Per m weight'!C4*0.03937)*39.37)*(1000/B9))*'Per m weight'!G4)</f>
         <v>10868.958675862068</v>
       </c>
-      <c r="J4" s="67">
-        <f>+D4+((('Per m weight'!D8/25.4)*39.37008)*'Per m weight'!H4)</f>
+      <c r="J4" s="41">
+        <f>+D4+((('Per m weight'!C4/25.4)*39.37008)*'Per m weight'!G4)</f>
         <v>472.80030236220472</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="43">
         <f>SUM(B2:B3)</f>
         <v>759.71653790129074</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="44">
         <f>SUM(C2:C3)</f>
         <v>8177.5204394810817</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72">
+      <c r="D5" s="45"/>
+      <c r="E5" s="46">
         <f>SUM(E2:E3)</f>
         <v>870.06610866792698</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="47">
         <f>SUM(F2:F3)</f>
         <v>9365.3132877517855</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75">
+      <c r="G5" s="48"/>
+      <c r="H5" s="49">
         <f>SUM(H2:H3)</f>
         <v>1024.5555077412178</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="50">
         <f>SUM(I2:I3)</f>
         <v>11028.223275330771</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="53">
         <f>SUM(B2,B4)</f>
         <v>759.71653790129074</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="54">
         <f>SUM(C2,C4)</f>
         <v>8177.5204394810817</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82">
+      <c r="D6" s="55"/>
+      <c r="E6" s="56">
         <f>SUM(E2,E4)</f>
         <v>903.169425811677</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F6" s="57">
         <f>SUM(F2,F4)</f>
         <v>9721.6344141885675</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85">
+      <c r="G6" s="58"/>
+      <c r="H6" s="59">
         <f>SUM(H2,H4)</f>
         <v>1104.0034688862177</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="60">
         <f>SUM(I2,I4)</f>
         <v>11883.393978779046</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>74</v>
+      <c r="B8" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="18">
         <v>750</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="19">
         <v>43.5</v>
       </c>
     </row>
@@ -1942,655 +1565,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA41F81-A792-AF4B-B3E3-7017CE23155A}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
     </row>
-    <row r="2" spans="1:12" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="64">
+        <v>0.432</v>
+      </c>
+      <c r="C3" s="15">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="15">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14">
-        <v>0.373</v>
-      </c>
-      <c r="D3" s="15">
-        <v>130</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3">
-        <v>0.25</v>
+      <c r="F4" s="62"/>
+      <c r="G4">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D4" s="18">
-        <v>140</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="88"/>
-      <c r="H4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="89"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="17">
-        <v>0.313</v>
-      </c>
-      <c r="D5" s="18">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
-      <c r="B6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0.113</v>
-      </c>
-      <c r="D6" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="91">
-        <v>0.432</v>
-      </c>
-      <c r="D7" s="18">
-        <v>120</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="18">
-        <v>160</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="e">
-        <f>+F8+((('[1]Per m weight'!D10/25.4)*39.37008)*'[1]Per m weight'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
-      <c r="B9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B5" s="14">
         <v>1.3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="C5" s="15">
         <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="D10" s="18">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="D11" s="18">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="D12" s="18">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1.6160000000000001</v>
-      </c>
-      <c r="D13" s="18">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="D14" s="18">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
-      <c r="B15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="17">
-        <v>2.8210000000000002</v>
-      </c>
-      <c r="D15" s="18">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
-      <c r="B16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="17">
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="D16" s="18">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
-      <c r="B17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="17">
-        <v>1.7869999999999999</v>
-      </c>
-      <c r="D17" s="18">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
-      <c r="B18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="17">
-        <v>1.6459999999999999</v>
-      </c>
-      <c r="D18" s="18">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
-      <c r="B19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="18">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
-      <c r="B20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="17">
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="D20" s="18">
-        <v>260</v>
-      </c>
-      <c r="F20">
-        <f>+C20/1000</f>
-        <v>1.0840000000000001E-3</v>
-      </c>
-      <c r="G20">
-        <f>+F20*150</f>
-        <v>0.16260000000000002</v>
-      </c>
-      <c r="H20">
-        <f>+D20*0.15</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
-      <c r="B21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="17">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="D21" s="18">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
-      <c r="B22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="17">
-        <v>1.365</v>
-      </c>
-      <c r="D22" s="18">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
-      <c r="B23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="17">
-        <v>1</v>
-      </c>
-      <c r="D23" s="18">
-        <v>177.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
-      <c r="B24" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="17">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="D24" s="18">
-        <v>251.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
-      <c r="B25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D25" s="18">
-        <f>4*25.4</f>
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="89"/>
-      <c r="B26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0.438</v>
-      </c>
-      <c r="D26" s="18">
-        <f>4*25.4</f>
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="89"/>
-      <c r="B27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0.62</v>
-      </c>
-      <c r="D27" s="18">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
-      <c r="B28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="17">
-        <v>2.544</v>
-      </c>
-      <c r="D28" s="18">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
-      <c r="B29" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="D29" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
-      <c r="B30" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="17">
-        <v>1.9219999999999999</v>
-      </c>
-      <c r="D30" s="18">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
-      <c r="B31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="17">
-        <v>5.593</v>
-      </c>
-      <c r="D31" s="18">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="89"/>
-      <c r="B32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="D32" s="18">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
-      <c r="B33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="17">
-        <v>1.444</v>
-      </c>
-      <c r="D33" s="18">
-        <f>14*25.4</f>
-        <v>355.59999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
-      <c r="B34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="D34" s="18">
-        <f>5*25.4</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="22">
-        <v>0.98</v>
-      </c>
-      <c r="D35" s="23">
-        <v>200</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="26">
-        <v>1.3</v>
-      </c>
-      <c r="D36" s="27">
-        <v>275</v>
-      </c>
-      <c r="E36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A34"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
